--- a/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$147</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="912">
   <si>
     <t>Path</t>
   </si>
@@ -346,7 +346,329 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>medicationrequest-medicationrequestType/coding/code</t>
+    <t>medicationrequest-pharmacyOrderStatus</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
+</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>This is the status of the order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @STATUS 55.06-28b</t>
+  </si>
+  <si>
+    <t>extension-valueAnnotation-text</t>
+  </si>
+  <si>
+    <t>PROVIDER COMMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.text}
+</t>
+  </si>
+  <si>
+    <t>Provider Comments</t>
+  </si>
+  <si>
+    <t>This is any instructions or comments entered by the provider for this order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @PROVIDER COMMENTS  55.06-72</t>
+  </si>
+  <si>
+    <t>medicationrequest-nurseVerified</t>
+  </si>
+  <si>
+    <t>NV FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-nurseVerified}
+</t>
+  </si>
+  <si>
+    <t>NV Flag</t>
+  </si>
+  <si>
+    <t>This is an internal flag set whenever a nurse verifies the order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @NV FLAG 55.06-51</t>
+  </si>
+  <si>
+    <t>medicationrequest-pharmacistVerified</t>
+  </si>
+  <si>
+    <t>PV FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacistVerified}
+</t>
+  </si>
+  <si>
+    <t>PV Flag</t>
+  </si>
+  <si>
+    <t>This is an internal flag set whenever a pharmacist verifies the order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @PV FLAG 55.06-50</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>SPECIAL INSTRUCTIONS (LONG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>&lt;blank&gt;</t>
+  </si>
+  <si>
+    <t>undefined @SPECIAL INSTRUCTIONS (LONG) 55.06-135</t>
+  </si>
+  <si>
+    <t>extension-valueAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>SPECIAL INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is any special instructions (using abbreviations whenever possible) needed for this order.  This would include the physician's reason for ordering a PRN.  This field utilizes the abbreviations and expansions from the MEDICATION INSTRUCTIONS file.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SPECIAL INSTRUCTIONS 55.06-8</t>
+  </si>
+  <si>
+    <t>medicationrequest-flaggedForClarification</t>
+  </si>
+  <si>
+    <t>FLAGGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
+</t>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>This indicates that this order has been flagged for clarification.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @FLAGGED 55.06-124</t>
+  </si>
+  <si>
+    <t>medicationrequest-extendedPriority</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
+</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>This field contains the priority of the order that was received from OERR.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @PRIORITY 55.06-.24b</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderPlacementChannel</t>
+  </si>
+  <si>
+    <t>NATURE OF ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
+</t>
+  </si>
+  <si>
+    <t>Nature of Orer</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate to the user to enter (or take any other action) on the order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @NATURE OF ORDER 55.06-110</t>
+  </si>
+  <si>
+    <t>pharmacy-dosageOrdered</t>
+  </si>
+  <si>
+    <t>DOSAGE ORDERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
+</t>
+  </si>
+  <si>
+    <t>Dosage Ordered</t>
+  </si>
+  <si>
+    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as  '500MG' or '50cc'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DOSAGE ORDERED 55.06-109</t>
+  </si>
+  <si>
+    <t>extension-MedicationRequest-statusReason</t>
+  </si>
+  <si>
+    <t>DISPLAY STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
+</t>
+  </si>
+  <si>
+    <t>Display Status</t>
+  </si>
+  <si>
+    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DISPLAY STATUS 55.06-136</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderCreationMode</t>
+  </si>
+  <si>
+    <t>REASON ORDER CREATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
+</t>
+  </si>
+  <si>
+    <t>Reason Order Created</t>
+  </si>
+  <si>
+    <t>This is used to show the method used to create this order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @REASON ORDER CREATED  55.06-103</t>
+  </si>
+  <si>
+    <t>medicationrequest-lastLocationOfPatient</t>
+  </si>
+  <si>
+    <t>LAST WARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastLocationOfPatient}
+</t>
+  </si>
+  <si>
+    <t>Last Ward</t>
+  </si>
+  <si>
+    <t>This is the last ward the patient was located when the order expired or was discontinued.  This is automatically updated by the Unit Dose package when the package finds that the patient is first admitted or when the patient is found to have been transferred.  This allows any returns that are entered to be credited to the correct ward.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @LAST WARD 55.06-68</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderDraftDate</t>
+  </si>
+  <si>
+    <t>ORDER DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
+</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>This is the date the order was entered into the computer.  The package enters this date automatically when the order is transcribed.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @ORDER DATE 55.06-27</t>
+  </si>
+  <si>
+    <t>medicationrequest-medicationScheduleType</t>
+  </si>
+  <si>
+    <t>SCHEDULE TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
+</t>
+  </si>
+  <si>
+    <t>Schedule Type</t>
+  </si>
+  <si>
+    <t>This describes the type of schedule for the dispensing of the medication(s) that make up the order.   PRE-OP orders are usually considered to be ON-CALL orders, and orders dispensed as MUTLI-DOSE CONTAINERS are usually considered to be FILL ON REQUEST orders.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SCHEDULE TYPE 55.06-7</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-hospitalSupply</t>
+  </si>
+  <si>
+    <t>HOSPITAL SUPPLIED SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED prompt is ever edited to show `NO' (or `0'), this field is automatically deleted.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @HOSPITAL SUPPLIED SELF MED 55.06-6</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-selfAdminister</t>
+  </si>
+  <si>
+    <t>SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' or (`YES') if this medication is to be administered by the patient to himself.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SELF MED 55.06-5</t>
+  </si>
+  <si>
+    <t>medicationrequest-medicationrequestType-coding-code</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -362,329 +684,7 @@
     <t>This identifies the type of medication ordered.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PHARMACY PATIENT FILE @TYPE 55.06-4</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication/extension/selfAdminister</t>
-  </si>
-  <si>
-    <t>SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
-</t>
-  </si>
-  <si>
-    <t>This should contain a `1' or (`YES') if this medication is to be administered by the patient to himself.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SELF MED 55.06-5</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication/extension/hospitalSupply</t>
-  </si>
-  <si>
-    <t>HOSPITAL SUPPLIED SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
-</t>
-  </si>
-  <si>
-    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED prompt is ever edited to show `NO' (or `0'), this field is automatically deleted.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @HOSPITAL SUPPLIED SELF MED 55.06-6</t>
-  </si>
-  <si>
-    <t>medicationrequest-medicationScheduleType</t>
-  </si>
-  <si>
-    <t>SCHEDULE TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
-</t>
-  </si>
-  <si>
-    <t>Schedule Type</t>
-  </si>
-  <si>
-    <t>This describes the type of schedule for the dispensing of the medication(s) that make up the order.   PRE-OP orders are usually considered to be ON-CALL orders, and orders dispensed as MUTLI-DOSE CONTAINERS are usually considered to be FILL ON REQUEST orders.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SCHEDULE TYPE 55.06-7</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderDraftDate</t>
-  </si>
-  <si>
-    <t>ORDER DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
-</t>
-  </si>
-  <si>
-    <t>Order Date</t>
-  </si>
-  <si>
-    <t>This is the date the order was entered into the computer.  The package enters this date automatically when the order is transcribed.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @ORDER DATE 55.06-27</t>
-  </si>
-  <si>
-    <t>medicationrequest-lastLocationOfPatient</t>
-  </si>
-  <si>
-    <t>LAST WARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastLocationOfPatient}
-</t>
-  </si>
-  <si>
-    <t>Last Ward</t>
-  </si>
-  <si>
-    <t>This is the last ward the patient was located when the order expired or was discontinued.  This is automatically updated by the Unit Dose package when the package finds that the patient is first admitted or when the patient is found to have been transferred.  This allows any returns that are entered to be credited to the correct ward.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @LAST WARD 55.06-68</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderCreationMode</t>
-  </si>
-  <si>
-    <t>REASON ORDER CREATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
-</t>
-  </si>
-  <si>
-    <t>Reason Order Created</t>
-  </si>
-  <si>
-    <t>This is used to show the method used to create this order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @REASON ORDER CREATED  55.06-103</t>
-  </si>
-  <si>
-    <t>extension-MedicationRequest/statusReason</t>
-  </si>
-  <si>
-    <t>DISPLAY STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
-</t>
-  </si>
-  <si>
-    <t>Display Status</t>
-  </si>
-  <si>
-    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @DISPLAY STATUS 55.06-136</t>
-  </si>
-  <si>
-    <t>pharmacy-dosageOrdered</t>
-  </si>
-  <si>
-    <t>DOSAGE ORDERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
-</t>
-  </si>
-  <si>
-    <t>Dosage Ordered</t>
-  </si>
-  <si>
-    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as  '500MG' or '50cc'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @DOSAGE ORDERED 55.06-109</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderPlacementChannel</t>
-  </si>
-  <si>
-    <t>NATURE OF ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
-</t>
-  </si>
-  <si>
-    <t>Nature of Orer</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate to the user to enter (or take any other action) on the order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @NATURE OF ORDER 55.06-110</t>
-  </si>
-  <si>
-    <t>medicationrequest-extendedPriority</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
-</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>This field contains the priority of the order that was received from OERR.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @PRIORITY 55.06-.24b</t>
-  </si>
-  <si>
-    <t>medicationrequest-flaggedForClarification</t>
-  </si>
-  <si>
-    <t>FLAGGED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
-</t>
-  </si>
-  <si>
-    <t>Flagged</t>
-  </si>
-  <si>
-    <t>This indicates that this order has been flagged for clarification.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @FLAGGED 55.06-124</t>
-  </si>
-  <si>
-    <t>extension/valueAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>SPECIAL INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This is any special instructions (using abbreviations whenever possible) needed for this order.  This would include the physician's reason for ordering a PRN.  This field utilizes the abbreviations and expansions from the MEDICATION INSTRUCTIONS file.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SPECIAL INSTRUCTIONS 55.06-8</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>SPECIAL INSTRUCTIONS (LONG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>&lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>undefined @SPECIAL INSTRUCTIONS (LONG) 55.06-135</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacistVerified</t>
-  </si>
-  <si>
-    <t>PV FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacistVerified}
-</t>
-  </si>
-  <si>
-    <t>PV Flag</t>
-  </si>
-  <si>
-    <t>This is an internal flag set whenever a pharmacist verifies the order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @PV FLAG 55.06-50</t>
-  </si>
-  <si>
-    <t>medicationrequest-nurseVerified</t>
-  </si>
-  <si>
-    <t>NV FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-nurseVerified}
-</t>
-  </si>
-  <si>
-    <t>NV Flag</t>
-  </si>
-  <si>
-    <t>This is an internal flag set whenever a nurse verifies the order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @NV FLAG 55.06-51</t>
-  </si>
-  <si>
-    <t>extension/valueAnnotation/text</t>
-  </si>
-  <si>
-    <t>PROVIDER COMMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.text}
-</t>
-  </si>
-  <si>
-    <t>Provider Comments</t>
-  </si>
-  <si>
-    <t>This is any instructions or comments entered by the provider for this order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @PROVIDER COMMENTS  55.06-72</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacyOrderStatus</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacyOrderStatus}
-</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>This is the status of the order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @STATUS 55.06-28b</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1649,6 +1649,25 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.extension</t>
   </si>
   <si>
+    <t>timeOfDay</t>
+  </si>
+  <si>
+    <t>ADMIN TIMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/timeOfDay}
+</t>
+  </si>
+  <si>
+    <t>Admin Times</t>
+  </si>
+  <si>
+    <t>This is the times of the day the medication is to be administered.  This package initially assigns a default set of ADMIN TIMES when a STANDARD SCHEDULE is entered into the SCHEDULE prompt.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @ADMIN TIMES 55.06-41</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]</t>
   </si>
   <si>
@@ -1877,6 +1896,9 @@
     <t>The units of time for the period in UCUM units.</t>
   </si>
   <si>
+    <t>min</t>
+  </si>
+  <si>
     <t>Timing.repeat.periodUnit</t>
   </si>
   <si>
@@ -1987,6 +2009,70 @@
     <t>QSC.code</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.text</t>
+  </si>
+  <si>
+    <t>FREQUENCY (IN MINUTES)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>This is either a code or the number of minutes between the times the medication is to be administered.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @FREQUENCY (IN MINUTES) 55.06-42</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
   </si>
   <si>
@@ -2066,6 +2152,154 @@
     <t>.routeCode</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>MED ROUTE</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>This is the route of administration for this medication. If a  corresponding abbreviation is found for this route in the MEDICATION  ROUTES file, that abbreviation is printed on the various reports in this  package.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @MED ROUTE 55.06-3</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method</t>
   </si>
   <si>
@@ -2130,6 +2364,145 @@
     <t>PHARMACY PATIENT FILE @UNITS PER DOSE 55.07-.02</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].value</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>This is the numeric dosage for the order.  It will be combined with the UNIT field to show the dosage ordered.  For a dosage of 325MG, 325 would be stored here.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DOSE   55.06-120</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].unit</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>This is the field which contains the unit for the numeric dosage.  The combination of these two fields gives you the dosage ordered for this order.  For the doasge 325MG, MG would be stored here.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @UNIT    55.06-121</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.dose[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
@@ -2377,10 +2750,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether substitution is allowed or not</t>
@@ -2629,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO124"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2639,7 +3008,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.05859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="30.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3844,7 +4213,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -3885,10 +4254,10 @@
         <v>115</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3954,7 +4323,7 @@
         <v>111</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
@@ -3963,7 +4332,7 @@
         <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>45</v>
@@ -3977,13 +4346,13 @@
         <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>43</v>
@@ -4001,13 +4370,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -4073,7 +4442,7 @@
         <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -4082,7 +4451,7 @@
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -4096,13 +4465,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -4120,13 +4489,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4192,7 +4561,7 @@
         <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
@@ -4201,7 +4570,7 @@
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -4215,13 +4584,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -4239,13 +4608,13 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4311,7 +4680,7 @@
         <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -4334,13 +4703,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -4358,13 +4727,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4430,7 +4799,7 @@
         <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4453,13 +4822,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4477,13 +4846,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4549,7 +4918,7 @@
         <v>111</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4558,7 +4927,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -4572,13 +4941,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -4596,13 +4965,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4668,7 +5037,7 @@
         <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -4691,13 +5060,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -4715,13 +5084,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4787,7 +5156,7 @@
         <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -4810,13 +5179,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -4834,13 +5203,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4906,7 +5275,7 @@
         <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -4929,13 +5298,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -4953,13 +5322,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5025,7 +5394,7 @@
         <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -5048,13 +5417,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -5072,13 +5441,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5144,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
@@ -5153,7 +5522,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -5167,13 +5536,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -5191,13 +5560,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5263,7 +5632,7 @@
         <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
@@ -5286,13 +5655,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>43</v>
@@ -5310,13 +5679,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5382,7 +5751,7 @@
         <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5405,13 +5774,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5429,13 +5798,13 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5501,7 +5870,7 @@
         <v>111</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
@@ -5510,7 +5879,7 @@
         <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -5524,13 +5893,13 @@
         <v>98</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>43</v>
@@ -5548,13 +5917,13 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5620,7 +5989,7 @@
         <v>111</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
@@ -5629,7 +5998,7 @@
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -5643,13 +6012,13 @@
         <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>43</v>
@@ -5667,10 +6036,10 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>204</v>
@@ -5748,7 +6117,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -5867,7 +6236,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -7425,10 +7794,10 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>313</v>
@@ -10337,7 +10706,7 @@
         <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
@@ -11472,38 +11841,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>277</v>
+        <v>520</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11542,33 +11915,35 @@
         <v>45</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11576,7 +11951,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>524</v>
+        <v>45</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11587,11 +11962,9 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11615,10 +11988,10 @@
         <v>277</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11657,19 +12030,17 @@
         <v>45</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11693,7 +12064,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11704,9 +12075,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11724,16 +12097,16 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>525</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
+        <v>526</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11784,7 +12157,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>529</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11808,7 +12181,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>232</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11819,18 +12192,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>45</v>
@@ -11842,17 +12215,15 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11889,25 +12260,25 @@
         <v>45</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>45</v>
@@ -11936,18 +12307,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -11956,19 +12327,19 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>388</v>
+        <v>99</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>234</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>235</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>216</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12006,28 +12377,28 @@
         <v>45</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>237</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>45</v>
@@ -12042,26 +12413,24 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D81" t="s" s="2">
-        <v>537</v>
-      </c>
+      <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
@@ -12069,7 +12438,7 @@
         <v>54</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>45</v>
@@ -12081,21 +12450,19 @@
         <v>388</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P81" t="s" s="2">
-        <v>541</v>
-      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>45</v>
       </c>
@@ -12139,7 +12506,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -12148,13 +12515,13 @@
         <v>54</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>45</v>
@@ -12163,24 +12530,26 @@
         <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12188,7 +12557,7 @@
         <v>54</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
@@ -12197,68 +12566,68 @@
         <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P82" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="Q82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -12267,13 +12636,13 @@
         <v>54</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>45</v>
+        <v>549</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>45</v>
@@ -12282,18 +12651,18 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>45</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12319,13 +12688,17 @@
         <v>469</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
@@ -12373,7 +12746,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12397,7 +12770,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12408,7 +12781,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12431,20 +12804,16 @@
         <v>55</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>558</v>
+        <v>469</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M84" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N84" t="s" s="2">
-        <v>562</v>
-      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -12492,7 +12861,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12516,7 +12885,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12527,7 +12896,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12550,19 +12919,19 @@
         <v>55</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -12611,7 +12980,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12635,7 +13004,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -12646,7 +13015,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12669,16 +13038,20 @@
         <v>55</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12702,13 +13075,13 @@
         <v>45</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>572</v>
+        <v>45</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>573</v>
+        <v>45</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>45</v>
@@ -12750,7 +13123,7 @@
         <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12761,7 +13134,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12784,18 +13157,18 @@
         <v>55</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -12817,13 +13190,13 @@
         <v>45</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>45</v>
+        <v>579</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>45</v>
@@ -12841,7 +13214,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12865,7 +13238,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12874,9 +13247,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12890,7 +13263,7 @@
         <v>54</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>45</v>
@@ -12902,19 +13275,19 @@
         <v>469</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>45</v>
@@ -12956,7 +13329,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12980,7 +13353,7 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12991,7 +13364,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13014,13 +13387,13 @@
         <v>55</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>558</v>
+        <v>469</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -13071,7 +13444,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -13095,7 +13468,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -13106,7 +13479,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13129,13 +13502,13 @@
         <v>55</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -13186,7 +13559,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13210,7 +13583,7 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -13221,7 +13594,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13244,13 +13617,13 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>73</v>
+        <v>564</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -13277,13 +13650,13 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>572</v>
+        <v>45</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>573</v>
+        <v>45</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
@@ -13301,7 +13674,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13325,7 +13698,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -13334,9 +13707,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13347,10 +13720,10 @@
         <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>
@@ -13362,21 +13735,19 @@
         <v>73</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13396,9 +13767,11 @@
       <c r="W92" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="X92" s="2"/>
+      <c r="X92" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="Y92" t="s" s="2">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -13416,13 +13789,13 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>45</v>
@@ -13440,7 +13813,7 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>232</v>
+        <v>581</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13451,7 +13824,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13474,7 +13847,7 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>601</v>
+        <v>73</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>602</v>
@@ -13509,13 +13882,11 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -13533,7 +13904,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13568,7 +13939,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13591,20 +13962,18 @@
         <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>73</v>
+        <v>608</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>610</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13628,31 +13997,31 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>611</v>
+        <v>45</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13676,7 +14045,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>614</v>
+        <v>232</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13687,7 +14056,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13698,7 +14067,7 @@
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -13710,16 +14079,20 @@
         <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13743,13 +14116,13 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>45</v>
+        <v>618</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>45</v>
+        <v>619</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
@@ -13767,13 +14140,13 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -13791,7 +14164,7 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13802,7 +14175,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13825,17 +14198,15 @@
         <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>249</v>
+        <v>623</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13860,31 +14231,31 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE96" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13908,7 +14279,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13919,7 +14290,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13942,16 +14313,16 @@
         <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13977,31 +14348,31 @@
         <v>45</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE97" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14025,7 +14396,7 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -14036,7 +14407,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14056,23 +14427,19 @@
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>639</v>
+        <v>229</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>642</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>45</v>
       </c>
@@ -14096,13 +14463,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>643</v>
+        <v>45</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>644</v>
+        <v>45</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -14120,7 +14487,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>645</v>
+        <v>231</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14144,7 +14511,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>646</v>
+        <v>232</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -14155,18 +14522,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>45</v>
@@ -14175,21 +14542,21 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>648</v>
+        <v>234</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -14213,37 +14580,37 @@
         <v>45</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>651</v>
+        <v>45</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>652</v>
+        <v>45</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>653</v>
+        <v>237</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>45</v>
@@ -14261,7 +14628,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>654</v>
+        <v>232</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14272,7 +14639,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14283,7 +14650,7 @@
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -14295,19 +14662,19 @@
         <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>249</v>
+        <v>639</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -14332,13 +14699,13 @@
         <v>45</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>660</v>
+        <v>45</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>661</v>
+        <v>45</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>45</v>
@@ -14356,13 +14723,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -14380,24 +14747,26 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>45</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>648</v>
+      </c>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
@@ -14405,7 +14774,7 @@
         <v>54</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
@@ -14414,19 +14783,19 @@
         <v>55</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>665</v>
+        <v>228</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14463,17 +14832,19 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AB101" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>522</v>
+        <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14488,7 +14859,7 @@
         <v>45</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>45</v>
+        <v>654</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>45</v>
@@ -14497,28 +14868,24 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>45</v>
+        <v>656</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D102" t="s" s="2">
-        <v>672</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>43</v>
       </c>
@@ -14526,7 +14893,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>45</v>
@@ -14535,20 +14902,18 @@
         <v>55</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>669</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14572,13 +14937,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>45</v>
+        <v>662</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>45</v>
+        <v>663</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14596,7 +14961,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14611,7 +14976,7 @@
         <v>45</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>675</v>
+        <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>45</v>
@@ -14620,7 +14985,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14631,7 +14996,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14654,19 +15019,19 @@
         <v>55</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>677</v>
+        <v>249</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
@@ -14691,13 +15056,13 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>45</v>
+        <v>671</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>45</v>
+        <v>672</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -14715,7 +15080,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -14739,7 +15104,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14750,7 +15115,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14773,19 +15138,17 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>685</v>
+        <v>249</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>688</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
@@ -14810,13 +15173,13 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>45</v>
+        <v>679</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>45</v>
+        <v>680</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -14834,7 +15197,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14858,7 +15221,7 @@
         <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -14869,7 +15232,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14889,21 +15252,19 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>685</v>
+        <v>228</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>693</v>
+        <v>229</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>694</v>
+        <v>230</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>695</v>
-      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14951,7 +15312,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>696</v>
+        <v>231</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14975,7 +15336,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>691</v>
+        <v>232</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14986,18 +15347,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -15006,23 +15367,21 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>698</v>
+        <v>99</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>699</v>
+        <v>234</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>700</v>
+        <v>235</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -15058,25 +15417,25 @@
         <v>45</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>703</v>
+        <v>237</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -15094,7 +15453,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>704</v>
+        <v>232</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15105,7 +15464,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15116,7 +15475,7 @@
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -15125,19 +15484,23 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>398</v>
+        <v>639</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -15185,19 +15548,19 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>705</v>
+        <v>644</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>708</v>
+        <v>45</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>45</v>
@@ -15206,21 +15569,21 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>709</v>
+        <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>45</v>
+        <v>646</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15335,7 +15698,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15405,16 +15768,16 @@
         <v>45</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE109" t="s" s="2">
         <v>237</v>
@@ -15450,49 +15813,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>214</v>
+        <v>689</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>408</v>
+        <v>690</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
-        <v>45</v>
+        <v>693</v>
       </c>
       <c r="R110" t="s" s="2">
         <v>45</v>
@@ -15534,13 +15899,13 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>409</v>
+        <v>694</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>45</v>
@@ -15558,18 +15923,18 @@
         <v>45</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>97</v>
+        <v>695</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>45</v>
+        <v>696</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15589,23 +15954,21 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>718</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -15653,7 +16016,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15674,27 +16037,29 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>719</v>
+        <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>45</v>
+        <v>703</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
@@ -15702,27 +16067,27 @@
         <v>54</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>722</v>
+        <v>73</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>707</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15770,7 +16135,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15785,27 +16150,27 @@
         <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>45</v>
+        <v>710</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>726</v>
+        <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>728</v>
+        <v>712</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15825,19 +16190,21 @@
         <v>45</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>685</v>
+        <v>228</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>716</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -15885,7 +16252,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15906,29 +16273,27 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>732</v>
+        <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D114" t="s" s="2">
-        <v>736</v>
-      </c>
+      <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>43</v>
       </c>
@@ -15936,27 +16301,29 @@
         <v>54</v>
       </c>
       <c r="G114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H114" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J114" t="s" s="2">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>725</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
       </c>
@@ -16004,7 +16371,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -16019,27 +16386,27 @@
         <v>45</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>742</v>
+        <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>45</v>
+        <v>728</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16059,19 +16426,23 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>731</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
       </c>
@@ -16119,7 +16490,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -16143,18 +16514,18 @@
         <v>45</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>45</v>
+        <v>656</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16174,19 +16545,23 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>734</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
@@ -16210,13 +16585,13 @@
         <v>45</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>45</v>
+        <v>737</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>45</v>
+        <v>738</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>45</v>
@@ -16234,7 +16609,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -16246,7 +16621,7 @@
         <v>45</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>708</v>
+        <v>45</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>45</v>
@@ -16255,10 +16630,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>751</v>
+        <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -16269,7 +16644,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16289,19 +16664,23 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>228</v>
+        <v>742</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>229</v>
+        <v>743</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -16337,19 +16716,17 @@
         <v>45</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>231</v>
+        <v>747</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16373,7 +16750,7 @@
         <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>232</v>
+        <v>740</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -16382,43 +16759,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>741</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>748</v>
+      </c>
       <c r="C118" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>99</v>
+        <v>742</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>234</v>
+        <v>750</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>235</v>
+        <v>751</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>746</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -16466,13 +16849,13 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>237</v>
+        <v>747</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -16481,7 +16864,7 @@
         <v>45</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>45</v>
+        <v>752</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>45</v>
@@ -16490,7 +16873,7 @@
         <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>232</v>
+        <v>740</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16501,40 +16884,38 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -16583,13 +16964,13 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>409</v>
+        <v>231</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>45</v>
@@ -16607,7 +16988,7 @@
         <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16618,39 +16999,39 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>757</v>
+        <v>99</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>758</v>
+        <v>234</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>759</v>
+        <v>235</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>760</v>
+        <v>216</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16688,25 +17069,25 @@
         <v>45</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>756</v>
+        <v>237</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -16721,27 +17102,29 @@
         <v>45</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>751</v>
+        <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>761</v>
+        <v>232</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>762</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>756</v>
+      </c>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
@@ -16749,25 +17132,29 @@
         <v>54</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>249</v>
+        <v>564</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
@@ -16791,13 +17178,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>766</v>
+        <v>45</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>767</v>
+        <v>45</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16815,7 +17202,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16830,27 +17217,27 @@
         <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>45</v>
+        <v>762</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>768</v>
+        <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16867,70 +17254,76 @@
         <v>45</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="Q122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="Y122" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="Z122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE122" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16948,56 +17341,60 @@
         <v>45</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="AL122" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AM122" t="s" s="2">
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>778</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J123" t="s" s="2">
+      <c r="L123" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="K123" t="s" s="2">
+      <c r="M123" s="2"/>
+      <c r="N123" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="L123" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>45</v>
       </c>
@@ -17045,13 +17442,13 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>45</v>
@@ -17060,7 +17457,7 @@
         <v>45</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>45</v>
+        <v>782</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>45</v>
@@ -17069,18 +17466,18 @@
         <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>45</v>
+        <v>784</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17091,7 +17488,7 @@
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
@@ -17100,21 +17497,21 @@
         <v>45</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>784</v>
+        <v>67</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="M124" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="N124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -17162,41 +17559,2726 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO124" t="s" s="2">
+      <c r="G132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO147" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO124">
+  <autoFilter ref="A1:AO147">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17206,7 +20288,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI146">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$157</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5453" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="925">
   <si>
     <t>Path</t>
   </si>
@@ -1108,10 +1108,6 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
     <t>Medication to be taken</t>
   </si>
   <si>
@@ -1128,6 +1124,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>…code</t>
@@ -1151,10 +1154,192 @@
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
     <t>MedicationRequest.medication[x].id</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>DISPENSE DRUG</t>
+  </si>
+  <si>
+    <t>Dispense Drug</t>
+  </si>
+  <si>
+    <t>This is a medication that will actually be dispensed by pharmacy for this order.  Each dispense drug of an order must be tied to the primary drug of the order.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DISPENSE DRUG 55.07-.01</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1677,13 +1862,6 @@
     <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Timing.repeat.bounds[x]</t>
   </si>
   <si>
@@ -2018,31 +2196,6 @@
     <t>MedicationRequest.dosageInstruction.timing.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.timing.code.text</t>
   </si>
   <si>
@@ -2055,22 +2208,7 @@
     <t>This is either a code or the number of minutes between the times the medication is to be administered.</t>
   </si>
   <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
     <t>PHARMACY PATIENT FILE @FREQUENCY (IN MINUTES) 55.06-42</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
@@ -2170,51 +2308,12 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
     <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
   </si>
   <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
@@ -2227,77 +2326,16 @@
     <t>This is the route of administration for this medication. If a  corresponding abbreviation is found for this route in the MEDICATION  ROUTES file, that abbreviation is printed on the various reports in this  package.</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
     <t>PHARMACY PATIENT FILE @MED ROUTE 55.06-3</t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.method</t>
@@ -2998,7 +3036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO147"/>
+  <dimension ref="A1:AO157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8255,16 +8293,16 @@
         <v>55</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -8290,28 +8328,26 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="Y45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>346</v>
@@ -8332,32 +8368,34 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>54</v>
@@ -8369,18 +8407,20 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -8405,13 +8445,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -8429,10 +8469,10 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>231</v>
+        <v>346</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>54</v>
@@ -8447,35 +8487,35 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -8487,17 +8527,15 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -8534,22 +8572,26 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE47" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
@@ -8575,43 +8617,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -8649,25 +8689,25 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>237</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -8676,27 +8716,27 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8707,7 +8747,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -8716,21 +8756,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -8778,13 +8820,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -8796,24 +8838,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8824,7 +8866,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -8836,13 +8878,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>229</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8893,13 +8935,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -8917,51 +8959,51 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>232</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>388</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -8998,25 +9040,25 @@
         <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>237</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -9025,27 +9067,27 @@
         <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>394</v>
+        <v>232</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -9068,16 +9110,20 @@
         <v>55</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -9125,7 +9171,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -9137,30 +9183,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -9180,18 +9226,20 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>228</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -9240,7 +9288,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -9264,52 +9312,54 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -9357,13 +9407,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>237</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -9372,7 +9422,7 @@
         <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
@@ -9381,52 +9431,52 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -9474,13 +9524,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -9498,34 +9548,32 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D56" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -9534,18 +9582,20 @@
         <v>55</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -9593,10 +9643,10 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>54</v>
@@ -9608,27 +9658,27 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9651,17 +9701,19 @@
         <v>55</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -9710,7 +9762,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -9719,7 +9771,7 @@
         <v>54</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -9728,55 +9780,59 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>421</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9825,10 +9881,10 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>54</v>
@@ -9840,27 +9896,27 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9871,7 +9927,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -9883,7 +9939,7 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>249</v>
+        <v>434</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>435</v>
@@ -9918,66 +9974,66 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -10000,17 +10056,15 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -10059,7 +10113,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -10077,53 +10131,55 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -10174,42 +10230,42 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AK61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10220,7 +10276,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -10229,20 +10285,18 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -10291,34 +10345,34 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -10326,7 +10380,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10441,7 +10495,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10511,16 +10565,16 @@
         <v>45</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>237</v>
@@ -10558,41 +10612,41 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="M65" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -10640,13 +10694,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -10664,7 +10718,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>474</v>
+        <v>97</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -10675,17 +10729,17 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>54</v>
@@ -10700,18 +10754,18 @@
         <v>55</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>228</v>
+        <v>473</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -10759,10 +10813,10 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>54</v>
@@ -10774,27 +10828,27 @@
         <v>45</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10805,7 +10859,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -10817,17 +10871,17 @@
         <v>55</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10852,55 +10906,55 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH67" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AI67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10911,7 +10965,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10931,16 +10985,16 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>228</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10991,7 +11045,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -11015,10 +11069,10 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>45</v>
+        <v>494</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -11026,7 +11080,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11037,7 +11091,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -11046,23 +11100,21 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>493</v>
+        <v>249</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -11086,13 +11138,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -11110,13 +11162,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -11128,24 +11180,24 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>501</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11156,7 +11208,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -11168,15 +11220,17 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>228</v>
+        <v>507</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>508</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -11225,13 +11279,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>231</v>
+        <v>506</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -11243,16 +11297,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>232</v>
+        <v>512</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -11260,11 +11314,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -11283,17 +11337,15 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>99</v>
+        <v>514</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>234</v>
+        <v>515</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -11330,19 +11382,19 @@
         <v>45</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>237</v>
+        <v>513</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -11360,13 +11412,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>518</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>232</v>
+        <v>519</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -11377,7 +11429,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11397,21 +11449,21 @@
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>388</v>
+        <v>521</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -11459,7 +11511,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -11477,13 +11529,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>45</v>
+        <v>525</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -11494,7 +11546,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11514,21 +11566,19 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>509</v>
+        <v>228</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>510</v>
+        <v>229</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>230</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -11576,7 +11626,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -11588,7 +11638,7 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>514</v>
+        <v>45</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
@@ -11600,7 +11650,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>515</v>
+        <v>232</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -11611,18 +11661,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -11634,15 +11684,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -11679,25 +11731,25 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -11726,18 +11778,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -11746,21 +11798,21 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>234</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -11796,25 +11848,25 @@
         <v>45</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>237</v>
+        <v>534</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -11832,7 +11884,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>232</v>
+        <v>535</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11843,22 +11895,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>55</v>
@@ -11867,19 +11917,21 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11927,13 +11979,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>237</v>
+        <v>540</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -11942,7 +11994,7 @@
         <v>45</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>45</v>
@@ -11951,7 +12003,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11962,7 +12014,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11973,7 +12025,7 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -11985,16 +12037,18 @@
         <v>55</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -12018,35 +12072,37 @@
         <v>45</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -12064,7 +12120,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -12075,11 +12131,9 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
@@ -12100,13 +12154,13 @@
         <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -12157,7 +12211,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -12181,7 +12235,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -12192,7 +12246,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12212,19 +12266,23 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>228</v>
+        <v>554</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>229</v>
+        <v>555</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -12272,7 +12330,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>231</v>
+        <v>559</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -12296,7 +12354,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>232</v>
+        <v>560</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -12307,18 +12365,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -12330,17 +12388,15 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -12377,25 +12433,25 @@
         <v>45</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>45</v>
@@ -12424,18 +12480,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -12444,19 +12500,19 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>388</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>234</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>235</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>537</v>
+        <v>216</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -12494,28 +12550,28 @@
         <v>45</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>237</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>45</v>
@@ -12530,34 +12586,32 @@
         <v>45</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>540</v>
+        <v>232</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>541</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D82" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
@@ -12566,24 +12620,22 @@
         <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P82" t="s" s="2">
-        <v>547</v>
-      </c>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>45</v>
       </c>
@@ -12627,22 +12679,22 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>549</v>
+        <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>45</v>
@@ -12651,18 +12703,18 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>551</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12685,19 +12737,17 @@
         <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -12746,7 +12796,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12758,7 +12808,7 @@
         <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>45</v>
+        <v>575</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>45</v>
@@ -12770,7 +12820,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12781,7 +12831,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12801,16 +12851,16 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>469</v>
+        <v>228</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>560</v>
+        <v>229</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>561</v>
+        <v>230</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12861,7 +12911,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>562</v>
+        <v>231</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12885,7 +12935,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>558</v>
+        <v>232</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12896,18 +12946,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
@@ -12916,23 +12966,21 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>564</v>
+        <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>565</v>
+        <v>234</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>566</v>
+        <v>235</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
       </c>
@@ -12968,25 +13016,25 @@
         <v>45</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>569</v>
+        <v>237</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -13004,7 +13052,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>570</v>
+        <v>232</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -13013,45 +13061,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -13099,13 +13147,13 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>237</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
@@ -13114,7 +13162,7 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>45</v>
+        <v>584</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>45</v>
@@ -13123,7 +13171,7 @@
         <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>570</v>
+        <v>45</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -13134,7 +13182,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13157,13 +13205,13 @@
         <v>55</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -13190,31 +13238,29 @@
         <v>45</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>579</v>
+        <v>45</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -13238,7 +13284,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -13247,11 +13293,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
       </c>
@@ -13263,7 +13311,7 @@
         <v>54</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>45</v>
@@ -13272,22 +13320,22 @@
         <v>55</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>469</v>
+        <v>277</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>45</v>
@@ -13329,7 +13377,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -13353,7 +13401,7 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -13364,7 +13412,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13384,16 +13432,16 @@
         <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>469</v>
+        <v>228</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>587</v>
+        <v>229</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>588</v>
+        <v>230</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -13444,7 +13492,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>589</v>
+        <v>231</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -13468,7 +13516,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>570</v>
+        <v>232</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -13479,18 +13527,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -13499,18 +13547,20 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>564</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>583</v>
+        <v>234</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -13547,25 +13597,25 @@
         <v>45</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>592</v>
+        <v>237</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
@@ -13583,7 +13633,7 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>570</v>
+        <v>232</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -13617,7 +13667,7 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>564</v>
+        <v>449</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>594</v>
@@ -13625,7 +13675,9 @@
       <c r="L91" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="M91" s="2"/>
+      <c r="M91" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -13674,7 +13726,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13683,7 +13735,7 @@
         <v>54</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>598</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>45</v>
@@ -13698,24 +13750,26 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>45</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="E92" t="s" s="2">
         <v>43</v>
       </c>
@@ -13732,22 +13786,26 @@
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="Q92" t="s" s="2">
-        <v>599</v>
+        <v>45</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13765,13 +13823,13 @@
         <v>45</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>579</v>
+        <v>45</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>45</v>
@@ -13789,7 +13847,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13798,13 +13856,13 @@
         <v>54</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>598</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>45</v>
+        <v>608</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>45</v>
@@ -13813,18 +13871,18 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>45</v>
+        <v>610</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13835,7 +13893,7 @@
         <v>43</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>45</v>
@@ -13847,18 +13905,20 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>73</v>
+        <v>530</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
@@ -13882,11 +13942,13 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="X93" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y93" t="s" s="2">
-        <v>605</v>
+        <v>45</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -13904,13 +13966,13 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>45</v>
@@ -13928,7 +13990,7 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>232</v>
+        <v>617</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13939,7 +14001,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13950,7 +14012,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -13962,17 +14024,15 @@
         <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>611</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -14021,13 +14081,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -14045,7 +14105,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>232</v>
+        <v>617</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -14056,7 +14116,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14067,7 +14127,7 @@
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -14079,19 +14139,19 @@
         <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>73</v>
+        <v>623</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -14116,13 +14176,13 @@
         <v>45</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>618</v>
+        <v>45</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>619</v>
+        <v>45</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>45</v>
@@ -14140,13 +14200,13 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -14164,7 +14224,7 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -14175,7 +14235,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14201,13 +14261,17 @@
         <v>623</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -14255,7 +14319,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -14279,7 +14343,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -14290,7 +14354,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14313,17 +14377,15 @@
         <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -14348,13 +14410,13 @@
         <v>45</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>45</v>
@@ -14372,7 +14434,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14396,7 +14458,7 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -14405,9 +14467,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14421,31 +14483,31 @@
         <v>54</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>228</v>
+        <v>530</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>229</v>
+        <v>642</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>230</v>
+        <v>643</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>45</v>
@@ -14487,7 +14549,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>231</v>
+        <v>644</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14511,7 +14573,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>232</v>
+        <v>629</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -14522,18 +14584,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>45</v>
@@ -14542,20 +14604,18 @@
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>234</v>
+        <v>646</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
@@ -14592,25 +14652,25 @@
         <v>45</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>237</v>
+        <v>648</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>45</v>
@@ -14628,7 +14688,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>232</v>
+        <v>629</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14639,7 +14699,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14650,7 +14710,7 @@
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -14662,20 +14722,16 @@
         <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
       </c>
@@ -14723,13 +14779,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -14747,26 +14803,24 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D101" t="s" s="2">
-        <v>648</v>
-      </c>
+      <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
@@ -14774,7 +14828,7 @@
         <v>54</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
@@ -14783,20 +14837,16 @@
         <v>55</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>228</v>
+        <v>623</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
       </c>
@@ -14844,7 +14894,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14859,7 +14909,7 @@
         <v>45</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>654</v>
+        <v>45</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>45</v>
@@ -14868,18 +14918,18 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO101" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
         <v>656</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14893,7 +14943,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>45</v>
@@ -14902,24 +14952,22 @@
         <v>55</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>658</v>
+        <v>73</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>661</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>45</v>
+        <v>658</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>45</v>
@@ -14937,13 +14985,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14961,7 +15009,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14985,7 +15033,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14996,7 +15044,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15007,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
@@ -15019,20 +15067,18 @@
         <v>55</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -15056,13 +15102,11 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -15080,13 +15124,13 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>45</v>
@@ -15104,7 +15148,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>674</v>
+        <v>232</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -15115,7 +15159,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15126,7 +15170,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -15138,18 +15182,18 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>249</v>
+        <v>667</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
@@ -15173,13 +15217,13 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>680</v>
+        <v>45</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -15197,13 +15241,13 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>45</v>
@@ -15221,7 +15265,7 @@
         <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>682</v>
+        <v>232</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -15232,7 +15276,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15243,7 +15287,7 @@
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -15252,19 +15296,23 @@
         <v>45</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>229</v>
+        <v>673</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -15288,13 +15336,13 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>45</v>
+        <v>677</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>45</v>
+        <v>678</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -15312,13 +15360,13 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>231</v>
+        <v>679</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>45</v>
@@ -15336,7 +15384,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>232</v>
+        <v>680</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -15347,18 +15395,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -15367,20 +15415,18 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>99</v>
+        <v>682</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>234</v>
+        <v>683</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -15417,25 +15463,25 @@
         <v>45</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>237</v>
+        <v>685</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -15453,7 +15499,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>232</v>
+        <v>686</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15464,7 +15510,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15475,7 +15521,7 @@
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -15487,20 +15533,18 @@
         <v>55</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>639</v>
+        <v>249</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -15524,13 +15568,13 @@
         <v>45</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>45</v>
+        <v>691</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>45</v>
+        <v>692</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>45</v>
@@ -15548,13 +15592,13 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -15572,18 +15616,18 @@
         <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>645</v>
+        <v>694</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15698,7 +15742,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15813,9 +15857,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15826,10 +15870,10 @@
         <v>43</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>45</v>
@@ -15838,26 +15882,26 @@
         <v>55</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>689</v>
+        <v>365</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>690</v>
+        <v>366</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>691</v>
+        <v>367</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>692</v>
+        <v>368</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
-        <v>693</v>
+        <v>45</v>
       </c>
       <c r="R110" t="s" s="2">
         <v>45</v>
@@ -15899,13 +15943,13 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>694</v>
+        <v>369</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>45</v>
@@ -15923,24 +15967,26 @@
         <v>45</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>695</v>
+        <v>370</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>696</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="E111" t="s" s="2">
         <v>43</v>
       </c>
@@ -15948,7 +15994,7 @@
         <v>54</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>45</v>
@@ -15960,15 +16006,17 @@
         <v>228</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -16016,7 +16064,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>701</v>
+        <v>419</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -16031,7 +16079,7 @@
         <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>45</v>
+        <v>702</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>45</v>
@@ -16040,26 +16088,24 @@
         <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>702</v>
+        <v>420</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
         <v>703</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D112" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
@@ -16067,7 +16113,7 @@
         <v>54</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>45</v>
@@ -16076,18 +16122,18 @@
         <v>55</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>73</v>
+        <v>704</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>708</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -16111,13 +16157,13 @@
         <v>45</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>45</v>
+        <v>708</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>45</v>
+        <v>709</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -16135,7 +16181,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -16150,7 +16196,7 @@
         <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>710</v>
+        <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>45</v>
@@ -16165,12 +16211,12 @@
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>712</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16193,15 +16239,17 @@
         <v>55</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
         <v>716</v>
       </c>
@@ -16228,13 +16276,13 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>717</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>718</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -16252,7 +16300,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -16276,18 +16324,18 @@
         <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>719</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16310,7 +16358,7 @@
         <v>55</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>721</v>
+        <v>249</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>722</v>
@@ -16318,11 +16366,9 @@
       <c r="L114" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -16347,13 +16393,13 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>45</v>
+        <v>725</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>45</v>
+        <v>726</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -16371,7 +16417,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -16395,13 +16441,13 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>728</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" hidden="true">
@@ -16426,23 +16472,19 @@
         <v>45</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J115" t="s" s="2">
         <v>228</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>730</v>
+        <v>229</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>45</v>
       </c>
@@ -16490,7 +16532,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>653</v>
+        <v>231</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -16514,29 +16556,29 @@
         <v>45</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>655</v>
+        <v>232</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>656</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>45</v>
@@ -16545,23 +16587,21 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>733</v>
+        <v>234</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>734</v>
+        <v>235</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>736</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
@@ -16585,37 +16625,37 @@
         <v>45</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>737</v>
+        <v>45</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>738</v>
+        <v>45</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>739</v>
+        <v>237</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>45</v>
@@ -16633,7 +16673,7 @@
         <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>740</v>
+        <v>232</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -16644,7 +16684,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16655,7 +16695,7 @@
         <v>43</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>45</v>
@@ -16667,19 +16707,19 @@
         <v>55</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>742</v>
+        <v>364</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>743</v>
+        <v>365</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>744</v>
+        <v>366</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>745</v>
+        <v>367</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>746</v>
+        <v>368</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
@@ -16716,23 +16756,25 @@
         <v>45</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AB117" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>747</v>
+        <v>369</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>45</v>
@@ -16750,28 +16792,24 @@
         <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>740</v>
+        <v>370</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>748</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D118" t="s" s="2">
-        <v>749</v>
-      </c>
+      <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>43</v>
       </c>
@@ -16779,29 +16817,25 @@
         <v>54</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>742</v>
+        <v>228</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>750</v>
+        <v>229</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>746</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -16849,7 +16883,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>747</v>
+        <v>231</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16864,7 +16898,7 @@
         <v>45</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>752</v>
+        <v>45</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>45</v>
@@ -16873,7 +16907,7 @@
         <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>740</v>
+        <v>232</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16884,18 +16918,18 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>45</v>
@@ -16907,15 +16941,17 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -16952,25 +16988,25 @@
         <v>45</v>
       </c>
       <c r="AA119" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD119" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>45</v>
@@ -16997,49 +17033,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>45</v>
+        <v>735</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>45</v>
@@ -17069,25 +17107,25 @@
         <v>45</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -17105,26 +17143,24 @@
         <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D121" t="s" s="2">
-        <v>756</v>
-      </c>
+      <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
@@ -17132,7 +17168,7 @@
         <v>54</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>45</v>
@@ -17141,20 +17177,18 @@
         <v>55</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>564</v>
+        <v>228</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>757</v>
+        <v>383</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>758</v>
+        <v>384</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>759</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>760</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
@@ -17202,7 +17236,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>761</v>
+        <v>386</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -17217,7 +17251,7 @@
         <v>45</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>762</v>
+        <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>45</v>
@@ -17226,24 +17260,26 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>763</v>
+        <v>387</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>764</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>738</v>
+      </c>
       <c r="E122" t="s" s="2">
         <v>43</v>
       </c>
@@ -17251,10 +17287,10 @@
         <v>54</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>55</v>
@@ -17263,23 +17299,19 @@
         <v>73</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>768</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>769</v>
+        <v>393</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P122" t="s" s="2">
-        <v>770</v>
-      </c>
+      <c r="P122" s="2"/>
       <c r="Q122" t="s" s="2">
         <v>45</v>
       </c>
@@ -17299,13 +17331,13 @@
         <v>45</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>771</v>
+        <v>45</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>772</v>
+        <v>45</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
@@ -17323,7 +17355,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>773</v>
+        <v>394</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -17338,7 +17370,7 @@
         <v>45</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>45</v>
+        <v>741</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>45</v>
@@ -17347,26 +17379,24 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>774</v>
+        <v>396</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>775</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D123" t="s" s="2">
-        <v>777</v>
-      </c>
+      <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>43</v>
       </c>
@@ -17374,7 +17404,7 @@
         <v>54</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>45</v>
@@ -17386,14 +17416,14 @@
         <v>228</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>778</v>
+        <v>399</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>779</v>
+        <v>400</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>780</v>
+        <v>401</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -17442,7 +17472,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>781</v>
+        <v>402</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -17457,7 +17487,7 @@
         <v>45</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>782</v>
+        <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>45</v>
@@ -17466,18 +17496,18 @@
         <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>783</v>
+        <v>403</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>784</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17500,17 +17530,19 @@
         <v>55</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>786</v>
+        <v>407</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N124" t="s" s="2">
-        <v>788</v>
+        <v>410</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -17559,7 +17591,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>789</v>
+        <v>411</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -17568,7 +17600,7 @@
         <v>54</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>790</v>
+        <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>45</v>
@@ -17583,18 +17615,18 @@
         <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>791</v>
+        <v>412</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>784</v>
+        <v>413</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>792</v>
+        <v>744</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17617,19 +17649,19 @@
         <v>55</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>793</v>
+        <v>415</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>794</v>
+        <v>416</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>795</v>
+        <v>417</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>796</v>
+        <v>418</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -17678,7 +17710,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>797</v>
+        <v>419</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -17702,18 +17734,18 @@
         <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>798</v>
+        <v>420</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>784</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>799</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17736,19 +17768,19 @@
         <v>55</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>800</v>
+        <v>249</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>803</v>
+        <v>748</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>804</v>
+        <v>749</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
@@ -17773,13 +17805,13 @@
         <v>45</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>45</v>
+        <v>751</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>45</v>
@@ -17797,7 +17829,7 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>805</v>
+        <v>752</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -17821,7 +17853,7 @@
         <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>806</v>
+        <v>753</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
@@ -17832,7 +17864,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>807</v>
+        <v>754</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17855,19 +17887,19 @@
         <v>55</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>809</v>
+        <v>756</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>810</v>
+        <v>757</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>811</v>
+        <v>758</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>812</v>
+        <v>759</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
@@ -17904,19 +17936,17 @@
         <v>45</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="AB127" s="2"/>
       <c r="AC127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>813</v>
+        <v>760</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17940,7 +17970,7 @@
         <v>45</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -17949,15 +17979,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="B128" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>761</v>
+      </c>
       <c r="C128" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="E128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17965,7 +17999,7 @@
         <v>54</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>45</v>
@@ -17974,17 +18008,19 @@
         <v>55</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>808</v>
+        <v>755</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>816</v>
+        <v>763</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="M128" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="N128" t="s" s="2">
-        <v>818</v>
+        <v>759</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
@@ -18033,7 +18069,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>819</v>
+        <v>760</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -18048,7 +18084,7 @@
         <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>45</v>
+        <v>765</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>45</v>
@@ -18057,7 +18093,7 @@
         <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -18068,7 +18104,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>820</v>
+        <v>766</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18088,23 +18124,19 @@
         <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>821</v>
+        <v>228</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>822</v>
+        <v>229</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>825</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
@@ -18152,7 +18184,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>826</v>
+        <v>231</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -18176,7 +18208,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>827</v>
+        <v>232</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -18187,18 +18219,18 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>828</v>
+        <v>767</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>45</v>
@@ -18210,15 +18242,17 @@
         <v>45</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>829</v>
+        <v>234</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -18255,31 +18289,31 @@
         <v>45</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>828</v>
+        <v>237</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>831</v>
+        <v>45</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -18288,10 +18322,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>832</v>
+        <v>45</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>833</v>
+        <v>232</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -18300,15 +18334,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>834</v>
+        <v>768</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="E131" t="s" s="2">
         <v>43</v>
       </c>
@@ -18316,25 +18352,29 @@
         <v>54</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>228</v>
+        <v>623</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>229</v>
+        <v>770</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+        <v>771</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>773</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
       </c>
@@ -18382,7 +18422,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>231</v>
+        <v>774</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -18397,7 +18437,7 @@
         <v>45</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>45</v>
+        <v>775</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>45</v>
@@ -18406,56 +18446,60 @@
         <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>232</v>
+        <v>776</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>45</v>
+        <v>777</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>835</v>
+        <v>778</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>234</v>
+        <v>779</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>235</v>
+        <v>780</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>782</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P132" s="2"/>
+      <c r="P132" t="s" s="2">
+        <v>783</v>
+      </c>
       <c r="Q132" t="s" s="2">
         <v>45</v>
       </c>
@@ -18475,13 +18519,13 @@
         <v>45</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>45</v>
+        <v>784</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>45</v>
+        <v>785</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>45</v>
@@ -18499,13 +18543,13 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>237</v>
+        <v>786</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>45</v>
@@ -18523,52 +18567,54 @@
         <v>45</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>232</v>
+        <v>787</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>45</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>790</v>
+      </c>
       <c r="E133" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I133" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>214</v>
+        <v>791</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
       </c>
@@ -18616,13 +18662,13 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>409</v>
+        <v>794</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>45</v>
@@ -18631,7 +18677,7 @@
         <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>45</v>
+        <v>795</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>45</v>
@@ -18640,18 +18686,18 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>97</v>
+        <v>796</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>45</v>
+        <v>797</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>837</v>
+        <v>798</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18671,22 +18717,20 @@
         <v>45</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>838</v>
+        <v>799</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>840</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -18735,7 +18779,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18744,7 +18788,7 @@
         <v>54</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>45</v>
+        <v>803</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>45</v>
@@ -18756,21 +18800,21 @@
         <v>45</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>842</v>
+        <v>45</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>843</v>
+        <v>804</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>45</v>
+        <v>797</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>844</v>
+        <v>805</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18790,21 +18834,23 @@
         <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>845</v>
+        <v>73</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>808</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>809</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
       </c>
@@ -18852,7 +18898,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18873,21 +18919,21 @@
         <v>45</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>849</v>
+        <v>45</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>850</v>
+        <v>811</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>851</v>
+        <v>797</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18907,19 +18953,23 @@
         <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>853</v>
+        <v>814</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
       </c>
@@ -18967,7 +19017,7 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -18988,29 +19038,27 @@
         <v>45</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>855</v>
+        <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>856</v>
+        <v>819</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>857</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>858</v>
+        <v>820</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D137" t="s" s="2">
-        <v>859</v>
-      </c>
+      <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>43</v>
       </c>
@@ -19018,27 +19066,29 @@
         <v>54</v>
       </c>
       <c r="G137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J137" t="s" s="2">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>861</v>
+        <v>822</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="N137" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>825</v>
+      </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
       </c>
@@ -19086,7 +19136,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -19101,16 +19151,16 @@
         <v>45</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>864</v>
+        <v>45</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>865</v>
+        <v>45</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>866</v>
+        <v>827</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -19121,7 +19171,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>867</v>
+        <v>828</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19141,19 +19191,21 @@
         <v>45</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>284</v>
+        <v>821</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>868</v>
+        <v>829</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>831</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
       </c>
@@ -19201,7 +19253,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -19225,10 +19277,10 @@
         <v>45</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>870</v>
+        <v>827</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>45</v>
@@ -19236,7 +19288,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19256,19 +19308,23 @@
         <v>45</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>398</v>
+        <v>834</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>872</v>
+        <v>835</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+        <v>836</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>838</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
       </c>
@@ -19316,7 +19372,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -19328,7 +19384,7 @@
         <v>45</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>831</v>
+        <v>45</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>45</v>
@@ -19337,10 +19393,10 @@
         <v>45</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>874</v>
+        <v>45</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -19351,7 +19407,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19374,13 +19430,13 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>228</v>
+        <v>459</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>229</v>
+        <v>842</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>230</v>
+        <v>843</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -19431,7 +19487,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>231</v>
+        <v>841</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -19443,7 +19499,7 @@
         <v>45</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>45</v>
+        <v>844</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>45</v>
@@ -19452,10 +19508,10 @@
         <v>45</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>45</v>
+        <v>845</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>232</v>
+        <v>846</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
@@ -19466,18 +19522,18 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>45</v>
@@ -19489,17 +19545,15 @@
         <v>45</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>45</v>
@@ -19548,13 +19602,13 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>45</v>
@@ -19583,11 +19637,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19600,19 +19654,19 @@
         <v>45</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>216</v>
@@ -19665,7 +19719,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -19689,7 +19743,7 @@
         <v>45</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>45</v>
@@ -19700,18 +19754,18 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>45</v>
@@ -19720,19 +19774,19 @@
         <v>55</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>721</v>
+        <v>99</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>880</v>
+        <v>214</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>881</v>
+        <v>469</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>882</v>
+        <v>216</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -19782,13 +19836,13 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>879</v>
+        <v>470</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>45</v>
@@ -19803,21 +19857,21 @@
         <v>45</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>874</v>
+        <v>45</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>883</v>
+        <v>97</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>884</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19840,16 +19894,20 @@
         <v>45</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+        <v>852</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>854</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>45</v>
       </c>
@@ -19873,13 +19931,13 @@
         <v>45</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>888</v>
+        <v>45</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>889</v>
+        <v>45</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>45</v>
@@ -19897,7 +19955,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19918,21 +19976,21 @@
         <v>45</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>892</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>893</v>
+        <v>857</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19955,15 +20013,17 @@
         <v>45</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>894</v>
+        <v>858</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>896</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>860</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>861</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>45</v>
@@ -20012,7 +20072,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>893</v>
+        <v>857</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
@@ -20030,35 +20090,35 @@
         <v>45</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>897</v>
+        <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>45</v>
+        <v>864</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>900</v>
+        <v>45</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>45</v>
@@ -20070,13 +20130,13 @@
         <v>45</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>901</v>
+        <v>821</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -20127,13 +20187,13 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>45</v>
@@ -20148,35 +20208,37 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>45</v>
+        <v>868</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>45</v>
+        <v>870</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
-        <v>905</v>
+        <v>871</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>872</v>
+      </c>
       <c r="E147" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -20185,16 +20247,16 @@
         <v>45</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -20244,41 +20306,1199 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO148" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO151" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO152" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="M153" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO153" t="s" s="2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="AN154" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO154" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="AF147" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG147" t="s" s="2">
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO155" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F156" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH147" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO147" t="s" s="2">
+      <c r="G156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO156" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO147">
+  <autoFilter ref="A1:AO157">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20288,7 +21508,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI146">
+  <conditionalFormatting sqref="A2:AI156">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5829" uniqueCount="927">
   <si>
     <t>Path</t>
   </si>
@@ -430,261 +430,261 @@
     <t>PHARMACY PATIENT FILE @PV FLAG 55.06-50</t>
   </si>
   <si>
+    <t>extension-valueAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>SPECIAL INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is any special instructions (using abbreviations whenever possible) needed for this order.  This would include the physician's reason for ordering a PRN.  This field utilizes the abbreviations and expansions from the MEDICATION INSTRUCTIONS file.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SPECIAL INSTRUCTIONS 55.06-8</t>
+  </si>
+  <si>
+    <t>medicationrequest-flaggedForClarification</t>
+  </si>
+  <si>
+    <t>FLAGGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
+</t>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>This indicates that this order has been flagged for clarification.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @FLAGGED 55.06-124</t>
+  </si>
+  <si>
+    <t>medicationrequest-extendedPriority</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
+</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>This field contains the priority of the order that was received from OERR.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @PRIORITY 55.06-.24b</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderPlacementChannel</t>
+  </si>
+  <si>
+    <t>NATURE OF ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
+</t>
+  </si>
+  <si>
+    <t>Nature of Orer</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate to the user to enter (or take any other action) on the order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @NATURE OF ORDER 55.06-110</t>
+  </si>
+  <si>
+    <t>pharmacy-dosageOrdered</t>
+  </si>
+  <si>
+    <t>DOSAGE ORDERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
+</t>
+  </si>
+  <si>
+    <t>Dosage Ordered</t>
+  </si>
+  <si>
+    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as  '500MG' or '50cc'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DOSAGE ORDERED 55.06-109</t>
+  </si>
+  <si>
+    <t>extension-MedicationRequest-statusReason</t>
+  </si>
+  <si>
+    <t>DISPLAY STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
+</t>
+  </si>
+  <si>
+    <t>Display Status</t>
+  </si>
+  <si>
+    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @DISPLAY STATUS 55.06-136</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderCreationMode</t>
+  </si>
+  <si>
+    <t>REASON ORDER CREATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
+</t>
+  </si>
+  <si>
+    <t>Reason Order Created</t>
+  </si>
+  <si>
+    <t>This is used to show the method used to create this order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @REASON ORDER CREATED  55.06-103</t>
+  </si>
+  <si>
+    <t>medicationrequest-lastLocationOfPatient</t>
+  </si>
+  <si>
+    <t>LAST WARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastLocationOfPatient}
+</t>
+  </si>
+  <si>
+    <t>Last Ward</t>
+  </si>
+  <si>
+    <t>This is the last ward the patient was located when the order expired or was discontinued.  This is automatically updated by the Unit Dose package when the package finds that the patient is first admitted or when the patient is found to have been transferred.  This allows any returns that are entered to be credited to the correct ward.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @LAST WARD 55.06-68</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderDraftDate</t>
+  </si>
+  <si>
+    <t>ORDER DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
+</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>This is the date the order was entered into the computer.  The package enters this date automatically when the order is transcribed.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @ORDER DATE 55.06-27</t>
+  </si>
+  <si>
+    <t>medicationrequest-medicationScheduleType</t>
+  </si>
+  <si>
+    <t>SCHEDULE TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
+</t>
+  </si>
+  <si>
+    <t>Schedule Type</t>
+  </si>
+  <si>
+    <t>This describes the type of schedule for the dispensing of the medication(s) that make up the order.   PRE-OP orders are usually considered to be ON-CALL orders, and orders dispensed as MUTLI-DOSE CONTAINERS are usually considered to be FILL ON REQUEST orders.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SCHEDULE TYPE 55.06-7</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-hospitalSupply</t>
+  </si>
+  <si>
+    <t>HOSPITAL SUPPLIED SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED prompt is ever edited to show `NO' (or `0'), this field is automatically deleted.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @HOSPITAL SUPPLIED SELF MED 55.06-6</t>
+  </si>
+  <si>
+    <t>pharmacy-patientSelfMedication-extension-selfAdminister</t>
+  </si>
+  <si>
+    <t>SELF MED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
+</t>
+  </si>
+  <si>
+    <t>This should contain a `1' or (`YES') if this medication is to be administered by the patient to himself.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @SELF MED 55.06-5</t>
+  </si>
+  <si>
+    <t>medicationrequest-medicationrequestType-coding-code</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationrequestType.coding.code}
+</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>This identifies the type of medication ordered.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @TYPE 55.06-4</t>
+  </si>
+  <si>
     <t>richAnnotation-comment-text</t>
   </si>
   <si>
-    <t>SPECIAL INSTRUCTIONS (LONG)</t>
+    <t>COMMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
 </t>
   </si>
   <si>
-    <t>&lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>undefined @SPECIAL INSTRUCTIONS (LONG) 55.06-135</t>
-  </si>
-  <si>
-    <t>extension-valueAnnotation-comment-text</t>
-  </si>
-  <si>
-    <t>SPECIAL INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This is any special instructions (using abbreviations whenever possible) needed for this order.  This would include the physician's reason for ordering a PRN.  This field utilizes the abbreviations and expansions from the MEDICATION INSTRUCTIONS file.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SPECIAL INSTRUCTIONS 55.06-8</t>
-  </si>
-  <si>
-    <t>medicationrequest-flaggedForClarification</t>
-  </si>
-  <si>
-    <t>FLAGGED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-flaggedForClarification}
-</t>
-  </si>
-  <si>
-    <t>Flagged</t>
-  </si>
-  <si>
-    <t>This indicates that this order has been flagged for clarification.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @FLAGGED 55.06-124</t>
-  </si>
-  <si>
-    <t>medicationrequest-extendedPriority</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
-</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>This field contains the priority of the order that was received from OERR.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @PRIORITY 55.06-.24b</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderPlacementChannel</t>
-  </si>
-  <si>
-    <t>NATURE OF ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
-</t>
-  </si>
-  <si>
-    <t>Nature of Orer</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate to the user to enter (or take any other action) on the order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @NATURE OF ORDER 55.06-110</t>
-  </si>
-  <si>
-    <t>pharmacy-dosageOrdered</t>
-  </si>
-  <si>
-    <t>DOSAGE ORDERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-dosageOrdered}
-</t>
-  </si>
-  <si>
-    <t>Dosage Ordered</t>
-  </si>
-  <si>
-    <t>This is the amount of the medication the patient is to receive as one dose  for this order. This should be an amount with a unit of measure, such as  '500MG' or '50cc'. THIS SHOULD NOT BE THE NUMBER OF TABLETS, ETC.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @DOSAGE ORDERED 55.06-109</t>
-  </si>
-  <si>
-    <t>extension-MedicationRequest-statusReason</t>
-  </si>
-  <si>
-    <t>DISPLAY STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
-</t>
-  </si>
-  <si>
-    <t>Display Status</t>
-  </si>
-  <si>
-    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @DISPLAY STATUS 55.06-136</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderCreationMode</t>
-  </si>
-  <si>
-    <t>REASON ORDER CREATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
-</t>
-  </si>
-  <si>
-    <t>Reason Order Created</t>
-  </si>
-  <si>
-    <t>This is used to show the method used to create this order.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @REASON ORDER CREATED  55.06-103</t>
-  </si>
-  <si>
-    <t>medicationrequest-lastLocationOfPatient</t>
-  </si>
-  <si>
-    <t>LAST WARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastLocationOfPatient}
-</t>
-  </si>
-  <si>
-    <t>Last Ward</t>
-  </si>
-  <si>
-    <t>This is the last ward the patient was located when the order expired or was discontinued.  This is automatically updated by the Unit Dose package when the package finds that the patient is first admitted or when the patient is found to have been transferred.  This allows any returns that are entered to be credited to the correct ward.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @LAST WARD 55.06-68</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderDraftDate</t>
-  </si>
-  <si>
-    <t>ORDER DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderDraftDate}
-</t>
-  </si>
-  <si>
-    <t>Order Date</t>
-  </si>
-  <si>
-    <t>This is the date the order was entered into the computer.  The package enters this date automatically when the order is transcribed.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @ORDER DATE 55.06-27</t>
-  </si>
-  <si>
-    <t>medicationrequest-medicationScheduleType</t>
-  </si>
-  <si>
-    <t>SCHEDULE TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationScheduleType}
-</t>
-  </si>
-  <si>
-    <t>Schedule Type</t>
-  </si>
-  <si>
-    <t>This describes the type of schedule for the dispensing of the medication(s) that make up the order.   PRE-OP orders are usually considered to be ON-CALL orders, and orders dispensed as MUTLI-DOSE CONTAINERS are usually considered to be FILL ON REQUEST orders.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SCHEDULE TYPE 55.06-7</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication-extension-hospitalSupply</t>
-  </si>
-  <si>
-    <t>HOSPITAL SUPPLIED SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.hospitalSupply}
-</t>
-  </si>
-  <si>
-    <t>This should contain a `1' (or `YES') if this medication is to be a `SELF MED' and this site's pharmacy is to supply the medication.  This is only asked if the user enters `YES' (or `1') to the SELF MED prompt. If the SELF MED prompt is ever edited to show `NO' (or `0'), this field is automatically deleted.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @HOSPITAL SUPPLIED SELF MED 55.06-6</t>
-  </si>
-  <si>
-    <t>pharmacy-patientSelfMedication-extension-selfAdminister</t>
-  </si>
-  <si>
-    <t>SELF MED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/pharmacy-patientSelfMedication.extension.selfAdminister}
-</t>
-  </si>
-  <si>
-    <t>This should contain a `1' or (`YES') if this medication is to be administered by the patient to himself.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @SELF MED 55.06-5</t>
-  </si>
-  <si>
-    <t>medicationrequest-medicationrequestType-coding-code</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-medicationrequestType.coding.code}
-</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>This identifies the type of medication ordered.</t>
-  </si>
-  <si>
-    <t>PHARMACY PATIENT FILE @TYPE 55.06-4</t>
+    <t>This is any remarks or explanations needed for this order.</t>
+  </si>
+  <si>
+    <t>PHARMACY PATIENT FILE @COMMENTS 55.06-15</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1345,20 +1345,23 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t>PATIENT</t>
+    <t>PATIENT NAME</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
-    <t>This is the name of a patient that has some type of pharmacy order.</t>
+    <t>Patient name</t>
+  </si>
+  <si>
+    <t>This is the patient for which the medication has been ordered.</t>
   </si>
   <si>
     <t>The subject on a medication request is mandatory.  For the secondary use case where the actual subject is not provided, there still must be an anonymized subject specified.</t>
   </si>
   <si>
-    <t>PHARMACY PATIENT FILE @PATIENT 55-.01ud</t>
+    <t>PHARMACY PATIENT FILE @PATIENT NAME 55.06-.5</t>
   </si>
   <si>
     <t>…subject</t>
@@ -1709,6 +1712,9 @@
   </si>
   <si>
     <t>Instructions</t>
+  </si>
+  <si>
+    <t>&lt;blank&gt;</t>
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
@@ -3048,7 +3054,7 @@
     <col min="1" max="1" width="68.05859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="30.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="29.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -4649,10 +4655,10 @@
         <v>133</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4718,7 +4724,7 @@
         <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -4727,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -4741,13 +4747,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -4765,13 +4771,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4837,7 +4843,7 @@
         <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4860,13 +4866,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4884,13 +4890,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4956,7 +4962,7 @@
         <v>111</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4979,13 +4985,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -5003,13 +5009,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -5075,7 +5081,7 @@
         <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -5084,7 +5090,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -5098,13 +5104,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -5122,13 +5128,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5194,7 +5200,7 @@
         <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -5217,13 +5223,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -5241,13 +5247,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5313,7 +5319,7 @@
         <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -5322,7 +5328,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -5336,13 +5342,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -5360,13 +5366,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5432,7 +5438,7 @@
         <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -5441,7 +5447,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -5455,13 +5461,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -5479,13 +5485,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5551,7 +5557,7 @@
         <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
@@ -5560,7 +5566,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -5574,13 +5580,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -5598,13 +5604,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5670,7 +5676,7 @@
         <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
@@ -5679,7 +5685,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -5693,13 +5699,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>43</v>
@@ -5717,13 +5723,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5789,7 +5795,7 @@
         <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5812,13 +5818,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5836,10 +5842,10 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>194</v>
@@ -6077,10 +6083,10 @@
         <v>203</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -6146,7 +6152,7 @@
         <v>111</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
@@ -6155,7 +6161,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -6169,13 +6175,13 @@
         <v>98</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>43</v>
@@ -6193,10 +6199,10 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>210</v>
@@ -6274,7 +6280,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -9825,13 +9831,13 @@
         <v>424</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9896,27 +9902,27 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9939,16 +9945,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9998,7 +10004,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -10016,24 +10022,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -10056,13 +10062,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -10113,7 +10119,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -10137,10 +10143,10 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -10148,14 +10154,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E61" t="s" s="2">
         <v>43</v>
@@ -10173,13 +10179,13 @@
         <v>55</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -10230,7 +10236,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -10245,27 +10251,27 @@
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10288,13 +10294,13 @@
         <v>55</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -10345,7 +10351,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -10357,22 +10363,22 @@
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -10380,7 +10386,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10495,7 +10501,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10612,11 +10618,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10641,7 +10647,7 @@
         <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>216</v>
@@ -10694,7 +10700,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -10729,14 +10735,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E66" t="s" s="2">
         <v>54</v>
@@ -10754,16 +10760,16 @@
         <v>55</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10813,7 +10819,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>54</v>
@@ -10828,27 +10834,27 @@
         <v>45</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10874,14 +10880,14 @@
         <v>284</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10930,7 +10936,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10939,7 +10945,7 @@
         <v>54</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>45</v>
@@ -10948,13 +10954,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10988,13 +10994,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -11045,7 +11051,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -11069,10 +11075,10 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -11080,7 +11086,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11106,13 +11112,13 @@
         <v>249</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -11141,10 +11147,10 @@
         <v>350</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -11162,7 +11168,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -11180,24 +11186,24 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11220,16 +11226,16 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -11279,7 +11285,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -11297,16 +11303,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -11314,7 +11320,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11337,13 +11343,13 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -11394,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -11412,13 +11418,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -11429,7 +11435,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11452,16 +11458,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -11511,7 +11517,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -11529,13 +11535,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -11546,7 +11552,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11661,7 +11667,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11778,7 +11784,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11801,17 +11807,17 @@
         <v>55</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -11860,7 +11866,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -11884,7 +11890,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11895,14 +11901,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E76" t="s" s="2">
         <v>43</v>
@@ -11923,14 +11929,14 @@
         <v>228</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>134</v>
+        <v>540</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -11979,7 +11985,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11994,7 +12000,7 @@
         <v>45</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>45</v>
@@ -12003,7 +12009,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -12014,7 +12020,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12040,14 +12046,14 @@
         <v>249</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -12075,10 +12081,10 @@
         <v>350</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>45</v>
@@ -12096,7 +12102,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -12120,7 +12126,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -12131,7 +12137,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12157,10 +12163,10 @@
         <v>228</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -12211,7 +12217,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -12235,7 +12241,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -12246,7 +12252,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12269,19 +12275,19 @@
         <v>55</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -12330,7 +12336,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -12354,7 +12360,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -12365,7 +12371,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12480,7 +12486,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12597,7 +12603,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12620,17 +12626,17 @@
         <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -12679,7 +12685,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -12703,7 +12709,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -12714,7 +12720,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12737,17 +12743,17 @@
         <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -12796,7 +12802,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12808,7 +12814,7 @@
         <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>45</v>
@@ -12820,7 +12826,7 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12831,7 +12837,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12946,7 +12952,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13063,16 +13069,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E86" t="s" s="2">
         <v>43</v>
@@ -13090,13 +13096,13 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -13162,7 +13168,7 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>45</v>
@@ -13182,7 +13188,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13208,10 +13214,10 @@
         <v>277</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -13260,7 +13266,7 @@
         <v>354</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -13284,7 +13290,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -13295,10 +13301,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
@@ -13323,10 +13329,10 @@
         <v>277</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -13377,7 +13383,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -13401,7 +13407,7 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -13412,7 +13418,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13527,7 +13533,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13644,7 +13650,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13667,16 +13673,16 @@
         <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13726,7 +13732,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -13735,7 +13741,7 @@
         <v>54</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>45</v>
@@ -13750,25 +13756,25 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E92" t="s" s="2">
         <v>43</v>
@@ -13786,23 +13792,23 @@
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>45</v>
@@ -13847,7 +13853,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13856,13 +13862,13 @@
         <v>54</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>45</v>
@@ -13871,18 +13877,18 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13905,19 +13911,19 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -13966,7 +13972,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13990,7 +13996,7 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -14001,7 +14007,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14024,13 +14030,13 @@
         <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -14081,7 +14087,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -14105,7 +14111,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -14116,7 +14122,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14139,19 +14145,19 @@
         <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -14200,7 +14206,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -14224,7 +14230,7 @@
         <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -14235,7 +14241,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14258,19 +14264,19 @@
         <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -14319,7 +14325,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -14343,7 +14349,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -14354,7 +14360,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14380,10 +14386,10 @@
         <v>73</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -14413,10 +14419,10 @@
         <v>243</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>45</v>
@@ -14434,7 +14440,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14458,7 +14464,7 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -14469,7 +14475,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14492,13 +14498,13 @@
         <v>55</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -14549,7 +14555,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14573,7 +14579,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -14584,7 +14590,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14607,13 +14613,13 @@
         <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -14664,7 +14670,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -14688,7 +14694,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14699,7 +14705,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14722,13 +14728,13 @@
         <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -14779,7 +14785,7 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
@@ -14803,7 +14809,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -14814,7 +14820,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14837,13 +14843,13 @@
         <v>55</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14894,7 +14900,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14918,7 +14924,7 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14929,7 +14935,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14955,10 +14961,10 @@
         <v>73</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14967,7 +14973,7 @@
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>45</v>
@@ -14988,10 +14994,10 @@
         <v>243</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -15009,7 +15015,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -15033,7 +15039,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -15044,7 +15050,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15070,13 +15076,13 @@
         <v>73</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -15106,7 +15112,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -15124,7 +15130,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -15159,7 +15165,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15182,16 +15188,16 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -15241,7 +15247,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -15276,7 +15282,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15302,16 +15308,16 @@
         <v>73</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -15339,10 +15345,10 @@
         <v>243</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -15360,7 +15366,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -15384,7 +15390,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -15395,7 +15401,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15418,13 +15424,13 @@
         <v>55</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -15475,7 +15481,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -15499,7 +15505,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15510,7 +15516,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15536,13 +15542,13 @@
         <v>249</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -15571,10 +15577,10 @@
         <v>333</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>45</v>
@@ -15592,7 +15598,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -15616,7 +15622,7 @@
         <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -15627,7 +15633,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15742,7 +15748,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15859,7 +15865,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15978,14 +15984,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E111" t="s" s="2">
         <v>43</v>
@@ -16006,10 +16012,10 @@
         <v>228</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>417</v>
@@ -16079,7 +16085,7 @@
         <v>45</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>45</v>
@@ -16099,7 +16105,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16122,16 +16128,16 @@
         <v>55</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -16160,10 +16166,10 @@
         <v>350</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -16181,7 +16187,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -16205,7 +16211,7 @@
         <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
@@ -16216,7 +16222,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16242,16 +16248,16 @@
         <v>249</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -16279,10 +16285,10 @@
         <v>350</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -16300,7 +16306,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -16324,7 +16330,7 @@
         <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -16335,7 +16341,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16361,14 +16367,14 @@
         <v>249</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -16396,10 +16402,10 @@
         <v>350</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -16417,7 +16423,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -16441,7 +16447,7 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -16452,7 +16458,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16567,7 +16573,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16684,7 +16690,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16803,7 +16809,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16918,7 +16924,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17035,7 +17041,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17077,7 +17083,7 @@
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>45</v>
@@ -17154,7 +17160,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17271,14 +17277,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E122" t="s" s="2">
         <v>43</v>
@@ -17299,10 +17305,10 @@
         <v>73</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
@@ -17370,7 +17376,7 @@
         <v>45</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>45</v>
@@ -17390,7 +17396,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17507,7 +17513,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17626,7 +17632,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17745,7 +17751,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17771,16 +17777,16 @@
         <v>249</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
@@ -17808,10 +17814,10 @@
         <v>350</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>45</v>
@@ -17829,7 +17835,7 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -17853,7 +17859,7 @@
         <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
@@ -17864,7 +17870,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17887,19 +17893,19 @@
         <v>55</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
@@ -17946,7 +17952,7 @@
         <v>354</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17970,7 +17976,7 @@
         <v>45</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -17981,16 +17987,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E128" t="s" s="2">
         <v>43</v>
@@ -18008,19 +18014,19 @@
         <v>55</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
@@ -18069,7 +18075,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -18084,7 +18090,7 @@
         <v>45</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>45</v>
@@ -18093,7 +18099,7 @@
         <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -18104,7 +18110,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18219,7 +18225,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18336,14 +18342,14 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E131" t="s" s="2">
         <v>43</v>
@@ -18361,19 +18367,19 @@
         <v>55</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
@@ -18422,7 +18428,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -18437,7 +18443,7 @@
         <v>45</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>45</v>
@@ -18446,18 +18452,18 @@
         <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18483,22 +18489,22 @@
         <v>73</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P132" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>45</v>
@@ -18522,10 +18528,10 @@
         <v>243</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>45</v>
@@ -18543,7 +18549,7 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -18567,25 +18573,25 @@
         <v>45</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E133" t="s" s="2">
         <v>43</v>
@@ -18606,14 +18612,14 @@
         <v>228</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
@@ -18662,7 +18668,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -18677,7 +18683,7 @@
         <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>45</v>
@@ -18686,18 +18692,18 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18723,14 +18729,14 @@
         <v>67</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -18779,7 +18785,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18788,7 +18794,7 @@
         <v>54</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>45</v>
@@ -18803,18 +18809,18 @@
         <v>45</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18840,16 +18846,16 @@
         <v>73</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18898,7 +18904,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18922,18 +18928,18 @@
         <v>45</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18956,19 +18962,19 @@
         <v>55</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -19017,7 +19023,7 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -19041,7 +19047,7 @@
         <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -19052,7 +19058,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19075,19 +19081,19 @@
         <v>55</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -19136,7 +19142,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -19160,7 +19166,7 @@
         <v>45</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -19171,7 +19177,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19194,17 +19200,17 @@
         <v>55</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
@@ -19253,7 +19259,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -19277,7 +19283,7 @@
         <v>45</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -19288,7 +19294,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19311,19 +19317,19 @@
         <v>55</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -19372,7 +19378,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -19396,7 +19402,7 @@
         <v>45</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -19407,7 +19413,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19430,13 +19436,13 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -19487,7 +19493,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -19499,7 +19505,7 @@
         <v>45</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>45</v>
@@ -19508,10 +19514,10 @@
         <v>45</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
@@ -19522,7 +19528,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19637,7 +19643,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19754,11 +19760,11 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19783,7 +19789,7 @@
         <v>214</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>216</v>
@@ -19836,7 +19842,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -19871,7 +19877,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19897,16 +19903,16 @@
         <v>277</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>45</v>
@@ -19955,7 +19961,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19976,10 +19982,10 @@
         <v>45</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>45</v>
@@ -19990,7 +19996,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -20013,16 +20019,16 @@
         <v>45</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -20072,7 +20078,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
@@ -20093,21 +20099,21 @@
         <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20130,13 +20136,13 @@
         <v>45</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -20187,7 +20193,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -20208,28 +20214,28 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E147" t="s" s="2">
         <v>43</v>
@@ -20247,16 +20253,16 @@
         <v>45</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -20306,7 +20312,7 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>43</v>
@@ -20321,16 +20327,16 @@
         <v>45</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>45</v>
@@ -20341,7 +20347,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20367,10 +20373,10 @@
         <v>284</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -20421,7 +20427,7 @@
         <v>45</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>43</v>
@@ -20445,10 +20451,10 @@
         <v>45</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>45</v>
@@ -20456,7 +20462,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20479,13 +20485,13 @@
         <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -20536,7 +20542,7 @@
         <v>45</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>43</v>
@@ -20548,7 +20554,7 @@
         <v>45</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>45</v>
@@ -20557,10 +20563,10 @@
         <v>45</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>45</v>
@@ -20571,7 +20577,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20686,7 +20692,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20803,11 +20809,11 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20832,7 +20838,7 @@
         <v>214</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>216</v>
@@ -20885,7 +20891,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -20920,7 +20926,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20946,13 +20952,13 @@
         <v>406</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -21002,7 +21008,7 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>54</v>
@@ -21023,21 +21029,21 @@
         <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21063,10 +21069,10 @@
         <v>249</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -21096,10 +21102,10 @@
         <v>350</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>45</v>
@@ -21117,7 +21123,7 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
@@ -21138,21 +21144,21 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21175,13 +21181,13 @@
         <v>45</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -21232,7 +21238,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -21250,13 +21256,13 @@
         <v>45</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -21267,11 +21273,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21290,13 +21296,13 @@
         <v>45</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -21347,7 +21353,7 @@
         <v>45</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
@@ -21371,7 +21377,7 @@
         <v>45</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
@@ -21382,7 +21388,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21405,16 +21411,16 @@
         <v>45</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -21464,7 +21470,7 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
@@ -21482,13 +21488,13 @@
         <v>45</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
